--- a/out/production/SistemaDeLanchonete/usuarios.xlsx
+++ b/out/production/SistemaDeLanchonete/usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>pettrius</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>pettrin</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>pett</t>
   </si>
 </sst>
 </file>
@@ -77,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,6 +124,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
